--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,6 +5709,43 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5746,6 +5746,41 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I153" t="n">
+        <v>119000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5781,6 +5781,43 @@
         <v>119000</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5818,6 +5818,41 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I155" t="n">
+        <v>228500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5853,6 +5853,41 @@
         <v>228500</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5888,6 +5888,43 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5925,6 +5925,41 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I158" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5960,6 +5960,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I159" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5995,6 +5995,78 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I160" t="n">
+        <v>250500</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6067,6 +6067,43 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6104,6 +6104,41 @@
         </is>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I163" t="n">
+        <v>250500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4882,11 +4882,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1575331200</v>
+        <v>1574035200</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4903,25 +4903,25 @@
         <v>0.075</v>
       </c>
       <c r="F129" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G129" t="n">
         <v>0.075</v>
       </c>
       <c r="H129" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I129" t="n">
-        <v>580500</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1575417600</v>
+        <v>1574121600</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4935,28 +4935,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F130" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G130" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H130" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I130" t="n">
-        <v>2000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1575504000</v>
+        <v>1574208000</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4973,25 +4973,25 @@
         <v>0.075</v>
       </c>
       <c r="F131" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G131" t="n">
         <v>0.075</v>
       </c>
       <c r="H131" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I131" t="n">
-        <v>119500</v>
+        <v>523000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1575590400</v>
+        <v>1574294400</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5005,30 +5005,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F132" t="n">
         <v>0.08</v>
       </c>
       <c r="G132" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H132" t="n">
         <v>0.08</v>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I132" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1575849600</v>
+        <v>1574640000</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5042,28 +5040,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F133" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G133" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H133" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I133" t="n">
-        <v>380500</v>
+        <v>240500</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1575936000</v>
+        <v>1574726400</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5077,28 +5075,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F134" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G134" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H134" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I134" t="n">
-        <v>10000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5112,30 +5110,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F135" t="n">
         <v>0.08</v>
       </c>
       <c r="G135" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H135" t="n">
         <v>0.08</v>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I135" t="n">
+        <v>380500</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1576108800</v>
+        <v>1575331200</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5149,30 +5145,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F136" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G136" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H136" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.075</v>
+      </c>
+      <c r="I136" t="n">
+        <v>580500</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1576195200</v>
+        <v>1575417600</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5197,19 +5191,17 @@
       <c r="H137" t="n">
         <v>0.08</v>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I137" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1576454400</v>
+        <v>1575504000</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5223,30 +5215,28 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F138" t="n">
         <v>0.08</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H138" t="n">
         <v>0.08</v>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I138" t="n">
+        <v>119500</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1576540800</v>
+        <v>1575590400</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5260,28 +5250,30 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F139" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G139" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H139" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="I139" t="n">
-        <v>10000</v>
+        <v>0.08</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1576627200</v>
+        <v>1575849600</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5307,16 +5299,16 @@
         <v>0.075</v>
       </c>
       <c r="I140" t="n">
-        <v>500000</v>
+        <v>380500</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1576713600</v>
+        <v>1575936000</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5330,28 +5322,28 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F141" t="n">
         <v>0.08</v>
       </c>
       <c r="G141" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H141" t="n">
         <v>0.08</v>
       </c>
       <c r="I141" t="n">
-        <v>501000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1576800000</v>
+        <v>1576022400</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5365,28 +5357,30 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F142" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G142" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H142" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1000</v>
+        <v>0.08</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1577145600</v>
+        <v>1576108800</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5400,16 +5394,16 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G143" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H143" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -5419,11 +5413,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1577318400</v>
+        <v>1576195200</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5437,16 +5431,16 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F144" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G144" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H144" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -5456,11 +5450,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1577750400</v>
+        <v>1576454400</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5474,16 +5468,16 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F145" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G145" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H145" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -5493,11 +5487,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1577923200</v>
+        <v>1576540800</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5528,11 +5522,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1578355200</v>
+        <v>1576627200</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5546,30 +5540,28 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F147" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G147" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H147" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.075</v>
+      </c>
+      <c r="I147" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1578528000</v>
+        <v>1576713600</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5583,30 +5575,28 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F148" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G148" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H148" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="I148" t="n">
+        <v>501000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1578873600</v>
+        <v>1576800000</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5632,16 +5622,16 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I149" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1579219200</v>
+        <v>1577145600</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5674,11 +5664,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1579478400</v>
+        <v>1577318400</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5711,11 +5701,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1581465600</v>
+        <v>1577750400</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5748,11 +5738,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1582070400</v>
+        <v>1577923200</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5766,28 +5756,28 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I153" t="n">
-        <v>119000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1582156800</v>
+        <v>1578355200</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5801,16 +5791,16 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -5820,11 +5810,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1582588800</v>
+        <v>1578528000</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5838,28 +5828,30 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I155" t="n">
-        <v>228500</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1583193600</v>
+        <v>1578873600</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5873,28 +5865,28 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I156" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1583280000</v>
+        <v>1579219200</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5908,16 +5900,16 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -5927,11 +5919,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1583452800</v>
+        <v>1579478400</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5945,28 +5937,30 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I158" t="n">
-        <v>40000</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1583712000</v>
+        <v>1581465600</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5980,28 +5974,30 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I159" t="n">
-        <v>200000</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1583798400</v>
+        <v>1582070400</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6015,28 +6011,28 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F160" t="n">
         <v>0.075</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H160" t="n">
         <v>0.075</v>
       </c>
       <c r="I160" t="n">
-        <v>250500</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1583884800</v>
+        <v>1582156800</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6069,11 +6065,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1583971200</v>
+        <v>1582588800</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6087,55 +6083,304 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H162" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>228500</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I165" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I166" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I167" t="n">
+        <v>250500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>03023</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>SMILE</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F163" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="G163" t="n">
+      <c r="F170" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G170" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I163" t="n">
+      <c r="H170" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I170" t="n">
         <v>250500</v>
       </c>
     </row>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6384,6 +6384,43 @@
         <v>250500</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6421,6 +6421,43 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6458,6 +6458,41 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I173" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6493,6 +6493,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I174" t="n">
+        <v>462500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6528,6 +6528,41 @@
         <v>462500</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I175" t="n">
+        <v>200500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6563,6 +6563,41 @@
         <v>200500</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I176" t="n">
+        <v>463000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6598,6 +6598,41 @@
         <v>463000</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I177" t="n">
+        <v>200700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6633,6 +6633,41 @@
         <v>200700</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I178" t="n">
+        <v>259000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6668,6 +6668,43 @@
         <v>259000</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6705,6 +6705,43 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6742,6 +6742,43 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6779,6 +6779,41 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I182" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6814,6 +6814,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6849,6 +6849,113 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I185" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6956,6 +6956,41 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6991,6 +6991,41 @@
         <v>3300</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03023.xlsx
+++ b/data/03023.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7026,6 +7026,113 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I189" t="n">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>03023</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SMILE</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I191" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
